--- a/biology/Botanique/Forteresse_d'Izmaïl/Forteresse_d'Izmaïl.xlsx
+++ b/biology/Botanique/Forteresse_d'Izmaïl/Forteresse_d'Izmaïl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forteresse_d%27Izma%C3%AFl</t>
+          <t>Forteresse_d'Izmaïl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la forteresse d'Izmaïl  (en ukrainien : Фортеця Ізмаїл), est un parc situé à Izmaïl sur le Dannube, en Ukraine.
-Le parc reprend l'enceinte de la forteresse et accueil de nombreux monument sur une site classé[2].
+Le parc reprend l'enceinte de la forteresse et accueil de nombreux monument sur une site classé.
 Il porte le nom de la forteresse située lors de la bataille de Izmaïl.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forteresse_d%27Izma%C3%AFl</t>
+          <t>Forteresse_d'Izmaïl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Édifices religieux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			La mosquée classée[3],
+			La mosquée classée,
 			cellules du monastère st-Nicolas et
-			l'église st-Nicolas classée[4],
-			l'église de la Dormition classée[5],
+			l'église st-Nicolas classée,
+			l'église de la Dormition classée,
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forteresse_d%27Izma%C3%AFl</t>
+          <t>Forteresse_d'Izmaïl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Monument du cimetière classé[6]
+			Monument du cimetière classé
 			au défenseurs de la forteresse,
 			et porte du cimetière militaire.
 			La plage.
